--- a/main.xlsx
+++ b/main.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Professor</t>
   </si>
@@ -26,33 +26,14 @@
     <t>Resposta</t>
   </si>
   <si>
+    <t>Euclides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teste   		 
+   		</t>
+  </si>
+  <si>
     <t>Fernando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdasdasdasdsa   		 
-   		</t>
-  </si>
-  <si>
-    <t>abcde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   	 
-   	</t>
-  </si>
-  <si>
-    <t>Ronnie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essa pergunta é sobre o Ronnie   		 
-   		</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Múltipla Escolha  	 
-   	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Múltpla escolha   	 
-   	</t>
   </si>
 </sst>
 </file>
@@ -391,7 +372,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,53 +398,25 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -26,14 +26,14 @@
     <t>Resposta</t>
   </si>
   <si>
-    <t>Euclides</t>
+    <t>Fernando</t>
   </si>
   <si>
     <t xml:space="preserve">teste   		 
    		</t>
   </si>
   <si>
-    <t>Fernando</t>
+    <t>Euclides</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,7 +402,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -411,12 +411,183 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
